--- a/Zadania - Analiza dynamiki zjawisk.xlsx
+++ b/Zadania - Analiza dynamiki zjawisk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="11595" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Zad 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="131">
   <si>
     <t>przyrosty absolutne</t>
   </si>
@@ -421,6 +421,105 @@
   <si>
     <t>h)</t>
   </si>
+  <si>
+    <t>p0</t>
+  </si>
+  <si>
+    <t>q0</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q1*p1</t>
+  </si>
+  <si>
+    <t>q0*p0</t>
+  </si>
+  <si>
+    <t>Agregatowy indeks wartosci=</t>
+  </si>
+  <si>
+    <t>Iw=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo zmian </t>
+  </si>
+  <si>
+    <t>Wartosc koszyka dóbr w badanym okresie zwiększyła się o 34%.</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>q0*p1</t>
+  </si>
+  <si>
+    <t>Agregatowy ideks ilosci wg Laspeuresa</t>
+  </si>
+  <si>
+    <t>L iq=</t>
+  </si>
+  <si>
+    <t>Tempo zmian</t>
+  </si>
+  <si>
+    <t>Gdyby ceny produktów w obu badanych momentach były takie same i równe ich cenom w momencie podstawowym to wartosć produktu zwiekszylaby się o 4,76%</t>
+  </si>
+  <si>
+    <t>q1*p0</t>
+  </si>
+  <si>
+    <t>Gdyby ilości produktów w obu badanych momentach były takie same i równe ich ilości w momencie podstawowym to wartosc wzrastałaby o 29,8%</t>
+  </si>
+  <si>
+    <t>L ip=</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>Tempo zmian=</t>
+  </si>
+  <si>
+    <t>P Iq=</t>
+  </si>
+  <si>
+    <t>Gdyby ceny produktów w obu badanych momentach były takie same i równe ich cenom w momencie badanym to wartosc koszyka dóbr wzrosłaby o 3,67%</t>
+  </si>
+  <si>
+    <t>Agregatowy indeks ilosci</t>
+  </si>
+  <si>
+    <t>Gdyby ilości produktów w obu badanych momentach były takie same i równe ich ilości w momencie badanym wzrosłaby o 28,4%</t>
+  </si>
+  <si>
+    <t>P Ip=</t>
+  </si>
+  <si>
+    <t>F Iq=</t>
+  </si>
+  <si>
+    <t>F Ip=</t>
+  </si>
+  <si>
+    <t>W badanym okresie ilosć zakupionych produktów wzrosła o 4,2%</t>
+  </si>
+  <si>
+    <t>Agregatowy indeks ilosci według Fishera</t>
+  </si>
+  <si>
+    <t>Agregatowy indeks cen według Fishera</t>
+  </si>
+  <si>
+    <t>W badanym okresie ceny zakupionych przedmiotów wzrosły o 29,08%</t>
+  </si>
 </sst>
 </file>
 
@@ -428,9 +527,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,8 +577,14 @@
       <name val="Czcionka tekstu podstawowego"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,8 +626,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -970,6 +1081,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -982,7 +1149,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
@@ -1065,6 +1232,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1107,24 +1294,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Kolumna" xfId="6"/>
@@ -1180,6 +1357,277 @@
         <a:xfrm>
           <a:off x="7391400" y="5781675"/>
           <a:ext cx="6144482" cy="2534004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333576</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="2705100"/>
+          <a:ext cx="1438476" cy="600159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609738</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="6210300"/>
+          <a:ext cx="990738" cy="543001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304934</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Obraz 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3076575" y="4572000"/>
+          <a:ext cx="962159" cy="581106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381133</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152472</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Obraz 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="10182225"/>
+          <a:ext cx="952633" cy="514422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>181104</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>76257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Obraz 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="11115675"/>
+          <a:ext cx="924054" cy="409632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>562087</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Obraz 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="7686675"/>
+          <a:ext cx="800212" cy="438211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466855</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Obraz 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3267075" y="8343900"/>
+          <a:ext cx="933580" cy="447737"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1584,37 +2032,37 @@
       <c r="P5" s="17"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1">
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="55" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="48" t="s">
+      <c r="E10" s="61"/>
+      <c r="F10" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="48" t="s">
+      <c r="G10" s="61"/>
+      <c r="H10" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50" t="s">
+      <c r="I10" s="61"/>
+      <c r="J10" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="49"/>
-      <c r="L10" s="48" t="s">
+      <c r="K10" s="61"/>
+      <c r="L10" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="49"/>
-      <c r="N10" s="48" t="s">
+      <c r="M10" s="61"/>
+      <c r="N10" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="49"/>
+      <c r="O10" s="61"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="B11" s="1"/>
@@ -1710,7 +2158,7 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="54">
         <v>5819</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -2519,28 +2967,28 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="50">
         <v>15</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="49">
         <v>2621</v>
       </c>
-      <c r="D27" s="65">
+      <c r="D27" s="52">
         <f t="shared" si="11"/>
         <v>97</v>
       </c>
-      <c r="E27" s="66">
+      <c r="E27" s="53">
         <f t="shared" si="1"/>
         <v>-3198</v>
       </c>
-      <c r="F27" s="69">
+      <c r="F27" s="56">
         <f t="shared" si="2"/>
         <v>3.8431061806656099E-2</v>
       </c>
-      <c r="G27" s="69">
+      <c r="G27" s="56">
         <f t="shared" si="0"/>
         <v>-0.54957896545798246</v>
       </c>
@@ -2689,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2701,41 +3149,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.9" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1"/>
     <row r="4" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
@@ -2761,7 +3209,7 @@
       <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="59">
         <v>320</v>
       </c>
       <c r="C7" s="13">
@@ -2775,7 +3223,7 @@
       <c r="A8" s="14">
         <v>3</v>
       </c>
-      <c r="B8" s="73">
+      <c r="B8" s="59">
         <v>329</v>
       </c>
       <c r="C8" s="13">
@@ -2789,13 +3237,13 @@
       <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="73">
+      <c r="B9" s="59">
         <v>346</v>
       </c>
       <c r="C9" s="13">
         <v>1.0711999999999999</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="57">
         <f>C9/C8</f>
         <v>1.0516395052032201</v>
       </c>
@@ -2804,17 +3252,17 @@
       <c r="A10" s="14">
         <v>5</v>
       </c>
-      <c r="B10" s="73">
+      <c r="B10" s="59">
         <v>380</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="58">
         <f>D7*D8*D9*D10</f>
         <v>1.1764281228890472</v>
       </c>
       <c r="D10" s="13">
         <v>1.0983000000000001</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="31">
         <f>C10*B6</f>
         <v>379.98628369316225</v>
       </c>
@@ -2823,7 +3271,7 @@
       <c r="A11" s="14">
         <v>6</v>
       </c>
-      <c r="B11" s="73">
+      <c r="B11" s="59">
         <v>418</v>
       </c>
       <c r="C11" s="13">
@@ -2875,7 +3323,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2974,30 +3422,30 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3009,10 +3457,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3020,27 +3468,27 @@
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1"/>
-    <row r="3" spans="1:5">
-      <c r="A3" s="59" t="s">
+    <row r="2" spans="1:9" ht="15" thickBot="1"/>
+    <row r="3" spans="1:9">
+      <c r="A3" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="58"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="60"/>
+      <c r="E3" s="70"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1">
+      <c r="A4" s="72"/>
       <c r="B4" s="15" t="s">
         <v>55</v>
       </c>
@@ -3054,92 +3502,400 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:9" ht="15">
+      <c r="A5" s="48"/>
+      <c r="B5" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B6" s="15">
         <v>30</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C6" s="15">
         <v>6</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D6" s="15">
         <v>35</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E6" s="76">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="36" t="s">
+      <c r="F6" s="36">
+        <f>E6*D6</f>
+        <v>245</v>
+      </c>
+      <c r="G6" s="35">
+        <f>C6*B6</f>
+        <v>180</v>
+      </c>
+      <c r="H6" s="36">
+        <f>C6*D6</f>
+        <v>210</v>
+      </c>
+      <c r="I6" s="35">
+        <f>E6*B6</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B7" s="15">
         <v>20</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C7" s="15">
         <v>5</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D7" s="15">
         <v>30</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E7" s="76">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="36" t="s">
+      <c r="F7" s="36">
+        <f t="shared" ref="F7:F9" si="0">E7*D7</f>
+        <v>120</v>
+      </c>
+      <c r="G7" s="35">
+        <f t="shared" ref="G7:G9" si="1">C7*B7</f>
+        <v>100</v>
+      </c>
+      <c r="H7" s="36">
+        <f t="shared" ref="H7:H8" si="2">C7*D7</f>
+        <v>150</v>
+      </c>
+      <c r="I7" s="35">
+        <f t="shared" ref="I7:I9" si="3">E7*B7</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B8" s="15">
         <v>10</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C8" s="15">
         <v>4</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D8" s="15">
         <v>15</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E8" s="76">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
-      <c r="A8" s="34" t="s">
+      <c r="F8" s="36">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G8" s="35">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H8" s="36">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="I8" s="35">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="B8" s="33">
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1">
+      <c r="A9" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="33">
         <v>20</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C9" s="33">
         <v>5</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D9" s="33">
         <v>25</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E9" s="77">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="F9" s="34">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="G9" s="32">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H9" s="34">
+        <f>C9*D9</f>
+        <v>125</v>
+      </c>
+      <c r="I9" s="32">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1">
+      <c r="F10" s="80">
+        <f>SUM(F6:F9)</f>
+        <v>565</v>
+      </c>
+      <c r="G10" s="81">
+        <f>SUM(G6:G9)</f>
+        <v>420</v>
+      </c>
+      <c r="H10" s="80">
+        <f>SUM(H6:H9)</f>
+        <v>545</v>
+      </c>
+      <c r="I10" s="81">
+        <f>SUM(I6:I9)</f>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19">
+        <f>F10/G10</f>
+        <v>1.3452380952380953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21">
+        <f>B19*100-100</f>
+        <v>34.523809523809547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28">
+        <f>I10/G10</f>
+        <v>1.0476190476190477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30">
+        <f>B28*100-100</f>
+        <v>4.7619047619047734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35">
+        <f>H10/G10</f>
+        <v>1.2976190476190477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36">
+        <f>B35*100-100</f>
+        <v>29.761904761904759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43">
+        <f>F10/H10</f>
+        <v>1.036697247706422</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44">
+        <f>B43*100-100</f>
+        <v>3.6697247706422047</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47">
+        <f>F10/I10</f>
+        <v>1.2840909090909092</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48">
+        <f>B47*100-100</f>
+        <v>28.409090909090907</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58">
+        <f>SQRT(B28/B43)</f>
+        <v>1.0052537925948541</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59">
+        <f>B58*100-100</f>
+        <v>0.52537925948541897</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64">
+        <f>SQRT(B35*B47)</f>
+        <v>1.2908372564002104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65">
+        <f>B64*100-100</f>
+        <v>29.083725640021044</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3149,6 +3905,7 @@
     <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3163,54 +3920,54 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1"/>
     <row r="7" spans="1:14" ht="18.75" thickBot="1">
@@ -3335,83 +4092,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1"/>
     <row r="11" spans="1:9" ht="15" thickBot="1">
